--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户、工具类编号（职务、类型等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单据类、证照类、品牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,63 +690,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>合同模板文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板条款标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtItemLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department - (dept)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ContractTemplate - (Ct)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同模板文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板条款标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CtText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CtItemLabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department - (dept)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完待续！！！</t>
+    <t>ContractTemplateBasicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户、商户、工具类编号（职务、类型等）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,8 +835,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -832,11 +857,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1146,10 +1168,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1161,45 +1183,42 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1207,708 +1226,727 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="5" customFormat="1"/>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="3" customFormat="1"/>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" s="5" customFormat="1"/>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="4"/>
-    </row>
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="3" customFormat="1"/>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
+      <c r="A50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>49</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="5" customFormat="1"/>
-    <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="4"/>
-    </row>
+    <row r="63" spans="1:2" s="3" customFormat="1"/>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
+      <c r="A65" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>47</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="5" customFormat="1"/>
-    <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="4"/>
-    </row>
+    <row r="80" spans="1:2" s="3" customFormat="1"/>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" t="s">
-        <v>58</v>
-      </c>
+      <c r="A82" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>70</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="5" customFormat="1"/>
-    <row r="89" spans="1:3">
-      <c r="A89" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="4"/>
-    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1"/>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
+      <c r="A90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="5" customFormat="1"/>
-    <row r="106" spans="1:2">
-      <c r="A106" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="4"/>
-    </row>
+    <row r="105" spans="1:2" s="3" customFormat="1"/>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
-      </c>
+      <c r="A107" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="5" customFormat="1"/>
-    <row r="118" spans="1:2">
-      <c r="A118" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119" t="s">
-        <v>135</v>
-      </c>
-    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="3" customFormat="1"/>
     <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" t="s">
-        <v>140</v>
-      </c>
+      <c r="A120" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" t="s">
-        <v>170</v>
+      <c r="A121" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" s="5" customFormat="1"/>
-    <row r="130" spans="1:2">
-      <c r="A130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>165</v>
-      </c>
-      <c r="B131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" t="s">
-        <v>149</v>
-      </c>
-    </row>
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="3" customFormat="1"/>
     <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>151</v>
-      </c>
-      <c r="B133" t="s">
-        <v>150</v>
-      </c>
+      <c r="A133" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="5" customFormat="1"/>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="5" customFormat="1"/>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>183</v>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="3" customFormat="1"/>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="3" customFormat="1"/>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1916,14 +1954,14 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A82:B82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CertStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认证截止时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,6 +686,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ContractTemplate - (Ct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>合同模板文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,15 +758,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContractTemplate - (Ct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ContractTemplateBasicInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户、商户、工具类编号（职务、类型等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandCert - (Bc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertBeginDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,16 +1170,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1218,7 +1234,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1229,7 +1245,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1384,10 +1400,10 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1401,53 +1417,53 @@
     <row r="31" spans="1:2" s="3" customFormat="1"/>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
         <v>89</v>
@@ -1463,24 +1479,24 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="3" customFormat="1"/>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="4"/>
     </row>
@@ -1502,18 +1518,18 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1534,18 +1550,18 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
         <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1559,7 +1575,7 @@
     <row r="63" spans="1:2" s="3" customFormat="1"/>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="4"/>
     </row>
@@ -1662,7 +1678,7 @@
     <row r="80" spans="1:2" s="3" customFormat="1"/>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="4"/>
     </row>
@@ -1704,7 +1720,7 @@
     <row r="88" spans="1:3" s="3" customFormat="1"/>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" s="4"/>
     </row>
@@ -1718,18 +1734,18 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
         <v>113</v>
-      </c>
-      <c r="B93" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1766,186 +1782,202 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" s="3" customFormat="1"/>
-    <row r="107" spans="1:2">
-      <c r="A107" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="4"/>
-    </row>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="3" customFormat="1"/>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>117</v>
       </c>
-      <c r="B108" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="3" customFormat="1"/>
-    <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="3" customFormat="1"/>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>185</v>
-      </c>
-      <c r="B122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>140</v>
-      </c>
-      <c r="B123" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>171</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="3" customFormat="1"/>
-    <row r="133" spans="1:2">
-      <c r="A133" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" t="s">
-        <v>147</v>
-      </c>
-    </row>
+    <row r="133" spans="1:2" s="3" customFormat="1"/>
     <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" t="s">
-        <v>148</v>
-      </c>
+      <c r="A135" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="3" customFormat="1"/>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="3" customFormat="1"/>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="3" customFormat="1"/>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="1:1" s="3" customFormat="1"/>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1954,9 +1986,9 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A90:B90"/>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,697 +16,785 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基本功能性词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职、聘用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Employment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常巡查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违反条例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非楼层，是指基于图形界面的层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuleItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（费用）款项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（规则）条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工指定或系统生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisteredCapital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegalPersonCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税务登记证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxRegistrationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertTypeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类、证照类、品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌编号、所属品牌编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准动作词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑的用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifyUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifyDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoragePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分公共词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业员相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品类相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaleRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入、登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voucher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭据、单据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理、受理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaleVoucher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnVisit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterSale - (As)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certification - (Cert)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractTemplate - (Ct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板条款标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtItemLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志相关词汇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department - (dept)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractTemplateBasicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户、商户、工具类编号（职务、类型等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandCert - (Bc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertBeginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Assistant </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.基本功能性词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职、聘用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Employment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchant </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常巡查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyPatrol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违反条例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputUserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非楼层，是指基于图形界面的层次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Booth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FeeItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuleItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（费用）款项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（规则）条款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工指定或系统生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BusinessLicense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisteredCapital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LegalPersonCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税务登记证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaxRegistrationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据类、证照类、品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌编号、所属品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准动作词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑的用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastModifyUserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次编辑的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastModifyDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoragePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分公共词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业员相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品品类相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaleRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入、登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voucher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凭据、单据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理、受理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回访</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaleVoucher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReturnVisit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfterSale - (As)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AsRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AsProblem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certification - (Cert)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractTemplate - (Ct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板条款标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CtText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CtItemLabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
+    <t>处理意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">disposalIdea </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,75 +802,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志相关词汇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department - (dept)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完待续！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractTemplateBasicInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户、商户、工具类编号（职务、类型等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoodsCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandCert - (Bc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertBeginDate</t>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1185,403 +1233,435 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="3" customFormat="1"/>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="3" customFormat="1"/>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="3" customFormat="1"/>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
@@ -1589,396 +1669,412 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
         <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
         <v>20</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="3" customFormat="1"/>
     <row r="82" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="3" customFormat="1"/>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="3" customFormat="1"/>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="3" customFormat="1"/>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:2" s="3" customFormat="1"/>
     <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="3" customFormat="1"/>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" s="3" customFormat="1"/>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>181</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>192</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" s="3" customFormat="1"/>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="3" customFormat="1"/>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,18 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,18 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工指定或系统生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,34 +402,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认证期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BrandCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单据类、证照类、品牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌编号、所属品牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,14 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prompt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -746,10 +694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户、商户、工具类编号（职务、类型等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品品类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CertBeginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投诉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -790,18 +730,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Disposal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,14 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RegisterUserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,7 +754,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send</t>
+    <t>系统生成的自增标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源自DB自增或程序设定的自增规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类、证照类、品牌等任意类型的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标识或编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dispose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人为后期指定 或 初始化时全部指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginDate\BeginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate\EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始、起始日期、时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束、截止日期、时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +881,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -899,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +944,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -921,8 +956,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1232,645 +1276,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
+      <c r="A3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="8" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="8" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="8" customFormat="1">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="3" customFormat="1"/>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="3" customFormat="1"/>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B43" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="3" customFormat="1"/>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="3" customFormat="1"/>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="3" customFormat="1"/>
-    <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-    </row>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="3" customFormat="1"/>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
+      <c r="A70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="3" customFormat="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1"/>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
         <v>53</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
         <v>54</v>
       </c>
-      <c r="C83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="3" customFormat="1"/>
+    </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="4"/>
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1"/>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" t="s">
-        <v>82</v>
-      </c>
+      <c r="A95" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
         <v>89</v>
@@ -1878,203 +1922,219 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="3" customFormat="1"/>
-    <row r="108" spans="1:2">
-      <c r="A108" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" s="3" customFormat="1"/>
-    <row r="122" spans="1:2">
-      <c r="A122" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="3" customFormat="1"/>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>163</v>
-      </c>
-      <c r="B124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>166</v>
-      </c>
-      <c r="B126" t="s">
-        <v>164</v>
-      </c>
-    </row>
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="3" customFormat="1"/>
     <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="A127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" s="3" customFormat="1"/>
-    <row r="135" spans="1:2">
-      <c r="A135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>160</v>
-      </c>
-      <c r="B137" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>157</v>
-      </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="138" spans="1:2" s="3" customFormat="1"/>
     <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>158</v>
-      </c>
-      <c r="B140" t="s">
-        <v>156</v>
-      </c>
+      <c r="A140" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" s="3" customFormat="1"/>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" s="3" customFormat="1"/>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>177</v>
+      </c>
+      <c r="B148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="3" customFormat="1"/>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="3" customFormat="1"/>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2082,14 +2142,14 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A140:B140"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -606,10 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AsRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AsProblem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,6 +843,10 @@
   </si>
   <si>
     <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterSaleRecord - (asr)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,21 +931,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1264,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B142" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1276,137 +1270,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="8" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:3" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="8" customFormat="1">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:3" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="6" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="8" customFormat="1">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="8" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1420,26 +1414,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
         <v>155</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
         <v>160</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1523,22 +1517,22 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="3" customFormat="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1"/>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>104</v>
@@ -1546,127 +1540,127 @@
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="8" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="8" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="3" customFormat="1"/>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1"/>
     <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
@@ -1674,7 +1668,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -1736,16 +1730,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="3" customFormat="1"/>
+    <row r="68" spans="1:2" s="2" customFormat="1"/>
     <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="5"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -1839,12 +1833,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="3" customFormat="1"/>
+    <row r="85" spans="1:3" s="2" customFormat="1"/>
     <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="5"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
@@ -1881,12 +1875,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="3" customFormat="1"/>
+    <row r="93" spans="1:3" s="2" customFormat="1"/>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
@@ -1946,15 +1940,15 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
         <v>84</v>
@@ -1976,104 +1970,104 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="3" customFormat="1"/>
+    <row r="111" spans="1:2" s="2" customFormat="1"/>
     <row r="113" spans="1:2">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="5"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="A114" s="7" t="s">
         <v>169</v>
       </c>
+      <c r="B114" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="A115" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="A116" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="3" customFormat="1"/>
+    <row r="124" spans="1:2" s="2" customFormat="1"/>
     <row r="127" spans="1:2">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="B128" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="11" t="s">
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B132" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" s="3" customFormat="1"/>
+    <row r="138" spans="1:2" s="2" customFormat="1"/>
     <row r="140" spans="1:2">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B140" s="5"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="A141" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="A142" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>138</v>
@@ -2111,30 +2105,30 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" s="3" customFormat="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="2" customFormat="1"/>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" s="3" customFormat="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="2" customFormat="1"/>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录入用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>录入日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,22 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认证标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CertTypeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BrandCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,14 +466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最近一次编辑的用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastModifyUserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最近一次编辑的日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AsProblem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Certification - (Cert)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">disposalIdea </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,10 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RegisterUserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RegisterDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,6 +803,34 @@
   </si>
   <si>
     <t>AfterSaleRecord - (asr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastModifyUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterUserCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次编辑的用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsrProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DisposalIdea </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,7 +1243,7 @@
   <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B142" sqref="A141:B142"/>
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1285,10 +1269,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1301,10 +1285,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1325,24 +1309,24 @@
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
@@ -1350,785 +1334,769 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
+      <c r="A32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="2" customFormat="1"/>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="2" customFormat="1"/>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
+      <c r="A56" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
+      <c r="A57" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
+      <c r="A58" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
+      <c r="A59" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B60" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="B61" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
+      <c r="A62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
+      <c r="A63" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="2" customFormat="1"/>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B76" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="A82" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1"/>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
         <v>51</v>
-      </c>
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1"/>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" t="s">
-        <v>170</v>
+      <c r="A103" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>148</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>93</v>
-      </c>
-      <c r="B105" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" t="s">
-        <v>94</v>
+      <c r="A104" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="2" customFormat="1"/>
     <row r="113" spans="1:2">
       <c r="A113" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="2" customFormat="1"/>
     <row r="127" spans="1:2">
       <c r="A127" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="2" customFormat="1"/>
     <row r="140" spans="1:2">
       <c r="A140" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>143</v>
+      <c r="A145" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>138</v>
+      <c r="A146" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B147" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:2" s="2" customFormat="1"/>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="2" customFormat="1"/>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非楼层，是指基于图形界面的层次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,18 +298,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RuleItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（费用）款项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（规则）条款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,6 +819,10 @@
   </si>
   <si>
     <t xml:space="preserve">DisposalIdea </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非楼层，是指基于图形界面的层次或功能区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1269,10 +1261,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1285,10 +1277,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1309,13 +1301,13 @@
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="6" customFormat="1">
@@ -1323,10 +1315,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="6" customFormat="1">
@@ -1334,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1">
@@ -1350,10 +1342,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="6" customFormat="1">
@@ -1366,627 +1358,630 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" t="s">
-        <v>152</v>
+      <c r="B20" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
+      <c r="A30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1"/>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1"/>
+    </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="1"/>
+      <c r="A37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1"/>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="3"/>
+      <c r="A55" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="2" customFormat="1"/>
+    <row r="67" spans="1:2" s="2" customFormat="1"/>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="3"/>
+      <c r="A70" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="2" customFormat="1"/>
+    <row r="84" spans="1:3" s="2" customFormat="1"/>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="3"/>
+    </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="3"/>
+      <c r="A87" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="A88" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" t="s">
-        <v>52</v>
-      </c>
+      <c r="A89" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B90" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="2" customFormat="1"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="92" spans="1:3" s="2" customFormat="1"/>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="3"/>
+    </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="3"/>
+      <c r="A95" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="2" customFormat="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="2" customFormat="1"/>
+    <row r="112" spans="1:2">
+      <c r="A112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="3"/>
+    </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="3"/>
+      <c r="A113" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>159</v>
+      <c r="A114" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" s="2" customFormat="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="2" customFormat="1"/>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="3"/>
+    </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B127" s="3"/>
+      <c r="A127" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>157</v>
+      <c r="A128" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="9" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>111</v>
@@ -1994,109 +1989,101 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="9" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" s="2" customFormat="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="2" customFormat="1"/>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B139" s="3"/>
+    </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B140" s="3"/>
+      <c r="A140" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="6" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="6" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="6" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>130</v>
+      <c r="A146" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>137</v>
-      </c>
-      <c r="B148" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" s="2" customFormat="1"/>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" s="2" customFormat="1"/>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>154</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="2" customFormat="1"/>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="2" customFormat="1"/>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2104,14 +2091,14 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A139:B139"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CtItemLabel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,6 +819,18 @@
   </si>
   <si>
     <t>非楼层，是指基于图形界面的层次或功能区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板条款标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtItemLabel - (CtiLabel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtItemLabelList - (CtilList)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,15 +925,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +936,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,270 +1242,270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="40.125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="B30" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="2" customFormat="1"/>
@@ -1508,562 +1516,570 @@
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1"/>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="2" customFormat="1"/>
     <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="A72" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1"/>
     <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>201</v>
+      <c r="C87" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1"/>
     <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="A102" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="B102" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="2" customFormat="1"/>
     <row r="112" spans="1:2">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="B113" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="2" customFormat="1"/>
     <row r="126" spans="1:2">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="B127" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B131" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="9" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B132" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="2" customFormat="1"/>
     <row r="139" spans="1:2">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="7"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B141" s="6" t="s">
+      <c r="A141" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>163</v>
+      <c r="A144" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2077,13 +2093,13 @@
     <row r="149" spans="1:2" s="2" customFormat="1"/>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="2" customFormat="1"/>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,30 @@
   </si>
   <si>
     <t>CtItemLabelList - (CtilList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LayoutFunction - (lf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoothStandFee - (bsf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摊位标准收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceGetFeePeriod - (rgfp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源收费周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1854,251 +1878,298 @@
       </c>
       <c r="C90" s="3"/>
     </row>
-    <row r="92" spans="1:3" s="2" customFormat="1"/>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1"/>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="7"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="2" customFormat="1"/>
-    <row r="112" spans="1:2">
-      <c r="A112" s="7" t="s">
+    <row r="117" spans="1:2" s="2" customFormat="1"/>
+    <row r="119" spans="1:2">
+      <c r="A119" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="7"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4" t="s">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="6" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B122" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="2" customFormat="1"/>
-    <row r="126" spans="1:2">
-      <c r="A126" s="7" t="s">
+    <row r="130" spans="1:2" s="2" customFormat="1"/>
+    <row r="133" spans="1:2">
+      <c r="A133" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B126" s="7"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="4" t="s">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="6" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B135" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="6" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="6" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="6" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="6" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="2" customFormat="1"/>
-    <row r="139" spans="1:2">
-      <c r="A139" s="7" t="s">
+    <row r="144" spans="1:2" s="2" customFormat="1"/>
+    <row r="146" spans="1:2">
+      <c r="A146" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="7"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="3" t="s">
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="3" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="3" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="3" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="3" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="3" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>160</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B153" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>134</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B154" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="2" customFormat="1"/>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
+    <row r="156" spans="1:2" s="2" customFormat="1"/>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="2" customFormat="1"/>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+    <row r="161" spans="1:1" s="2" customFormat="1"/>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2107,12 +2178,12 @@
     <sortCondition descending="1" ref="A5"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A146:B146"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A86:B86"/>
   </mergeCells>

--- a/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
+++ b/01.requirement/类图/实现类图/中英文词汇对照汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
   <si>
     <t>营业员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完待续！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,6 +851,18 @@
   </si>
   <si>
     <t>资源收费周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Info\Type\Status\BasicInfo\DetaiInfo\Text\Relation\Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.其他可直接表意的单词，例如：Brand\Assistant等！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分命名规范</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +977,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1293,10 +1307,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1309,10 +1323,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1333,13 +1347,13 @@
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1">
@@ -1347,10 +1361,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1">
@@ -1358,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1">
@@ -1374,10 +1388,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1">
@@ -1390,23 +1404,23 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
@@ -1518,10 +1532,10 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1605,7 +1619,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>131</v>
@@ -1613,7 +1627,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>142</v>
@@ -1621,34 +1635,34 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1"/>
@@ -1660,15 +1674,15 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>48</v>
@@ -1676,10 +1690,10 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1739,7 +1753,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>0</v>
@@ -1755,7 +1769,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1848,7 +1862,7 @@
         <v>50</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1880,28 +1894,28 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C93" s="3"/>
     </row>
@@ -1990,10 +2004,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2013,10 +2027,10 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2044,10 +2058,10 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2060,7 +2074,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>139</v>
@@ -2068,10 +2082,10 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2107,7 +2121,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>120</v>
@@ -2131,15 +2145,15 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>127</v>
@@ -2147,10 +2161,10 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2167,17 +2181,31 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:1" s="2" customFormat="1"/>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>150</v>
-      </c>
+    <row r="161" spans="1:2" s="2" customFormat="1"/>
+    <row r="175" spans="1:2">
+      <c r="A175" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176" s="10"/>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B177" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A5:A7">
     <sortCondition descending="1" ref="A5"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A146:B146"/>
